--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_24_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_24_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17100.16361930345</v>
+        <v>3402932.560241386</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17100.16361930345</v>
+        <v>3402932.560241386</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54511.68826054747</v>
+        <v>3402920.023946521</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>54511.68826054747</v>
+        <v>3402920.023946521</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1343603819.039525</v>
+        <v>52845711.94854051</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14151.02342175313</v>
+        <v>1376850.06093843</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26223.88318139864</v>
+        <v>2400422.205216671</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38309.85737699741</v>
+        <v>3423994.349494913</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50970.96104160856</v>
+        <v>4446269.775556142</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>63632.18200119984</v>
+        <v>5468568.543318417</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>76293.40296079052</v>
+        <v>6490867.311080846</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>88954.623920381</v>
+        <v>7513166.078843233</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>101615.8448799715</v>
+        <v>8535464.846605619</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>114277.0658395624</v>
+        <v>9557763.614367891</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>126938.2867991523</v>
+        <v>10580062.38213053</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>139599.5077587418</v>
+        <v>11602361.14989307</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>152260.7287183304</v>
+        <v>12624659.91765586</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>164921.9496779188</v>
+        <v>13646958.68541858</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>177583.1706375084</v>
+        <v>14669257.45318099</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>190244.3915970994</v>
+        <v>15691556.22094314</v>
       </c>
     </row>
   </sheetData>
@@ -27037,19 +27037,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>207.0000000000296</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>8.555017820792272e-11</v>
@@ -27058,7 +27058,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>206.9999999999757</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1086</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
